--- a/datasets/Happiness_Score_Countries.xlsx
+++ b/datasets/Happiness_Score_Countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Desktop\Happiness\Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jessica\Desktop\Happiness\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{067D3BE0-6878-4E1A-BD3D-F9F6AFDE0F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA60BEF2-D43B-4702-82F0-F62C1D9BDBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" xr2:uid="{73F002F7-DD98-4323-844B-35968B2993A7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{73F002F7-DD98-4323-844B-35968B2993A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1383,11 +1383,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5587C3FD-DBB3-42F9-A217-EF55CEDA0E38}">
   <dimension ref="A1:E2428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="93" workbookViewId="0">
-      <selection sqref="A1:E2428"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="19.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
